--- a/05 테스팅/테스트케이스_2_TwoBe_1.2.xlsx
+++ b/05 테스팅/테스트케이스_2_TwoBe_1.2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="394">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2505,8 +2505,8 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2792,7 +2792,9 @@
       <c r="I14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="66">
@@ -2820,7 +2822,9 @@
       <c r="I15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="82.5">
@@ -2848,7 +2852,9 @@
       <c r="I16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="99">
@@ -2876,7 +2882,9 @@
       <c r="I17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="66">
@@ -2904,7 +2912,9 @@
       <c r="I18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="33">
@@ -2932,7 +2942,9 @@
       <c r="I19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:11" ht="33">
@@ -2960,7 +2972,9 @@
       <c r="I20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:11" ht="33">
@@ -2988,7 +3002,9 @@
       <c r="I21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11" ht="33">
@@ -3016,7 +3032,9 @@
       <c r="I22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:11" ht="33">
@@ -3044,7 +3062,9 @@
       <c r="I23" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="25" t="s">
         <v>128</v>
       </c>
@@ -3074,7 +3094,9 @@
       <c r="I24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" ht="33">
@@ -3102,7 +3124,9 @@
       <c r="I25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="33">
@@ -3130,7 +3154,9 @@
       <c r="I26" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="2:11" ht="49.5">
@@ -3158,7 +3184,9 @@
       <c r="I27" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:11" ht="33">
@@ -3186,7 +3214,9 @@
       <c r="I28" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="2:11" ht="33">
@@ -3214,7 +3244,9 @@
       <c r="I29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="2:11" ht="33">
@@ -3242,7 +3274,9 @@
       <c r="I30" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:11" ht="49.5">
@@ -3270,7 +3304,9 @@
       <c r="I31" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="2:11" ht="49.5">
@@ -3298,7 +3334,9 @@
       <c r="I32" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K32" s="25" t="s">
         <v>197</v>
       </c>
@@ -3328,7 +3366,9 @@
       <c r="I33" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="2:11" ht="33">
@@ -3356,7 +3396,9 @@
       <c r="I34" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="25"/>
+      <c r="J34" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:11" ht="33">
@@ -3384,7 +3426,9 @@
       <c r="I35" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="2:11" ht="33">
@@ -3412,7 +3456,9 @@
       <c r="I36" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="25"/>
+      <c r="J36" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K36" s="25"/>
     </row>
     <row r="37" spans="2:11" ht="33">
@@ -3440,7 +3486,9 @@
       <c r="I37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="25"/>
+      <c r="J37" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="2:11" ht="33">
@@ -3468,7 +3516,9 @@
       <c r="I38" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="25"/>
+      <c r="J38" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" ht="66">
@@ -3496,7 +3546,9 @@
       <c r="I39" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J39" s="25"/>
+      <c r="J39" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="2:11" ht="33">
@@ -3524,7 +3576,9 @@
       <c r="I40" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="25"/>
+      <c r="J40" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="2:11" ht="66">
@@ -3552,7 +3606,9 @@
       <c r="I41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="25"/>
+      <c r="J41" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="2:11" ht="66">
@@ -3580,7 +3636,9 @@
       <c r="I42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="25"/>
+      <c r="J42" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="2:11" ht="33">
@@ -3608,7 +3666,9 @@
       <c r="I43" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="25"/>
+      <c r="J43" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K43" s="25"/>
     </row>
     <row r="44" spans="2:11" ht="66">
@@ -3636,7 +3696,9 @@
       <c r="I44" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="25"/>
+      <c r="J44" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="2:11" ht="33">
@@ -3664,7 +3726,9 @@
       <c r="I45" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="25"/>
+      <c r="J45" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K45" s="25"/>
     </row>
     <row r="46" spans="2:11" ht="66">
@@ -3692,7 +3756,9 @@
       <c r="I46" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="25"/>
+      <c r="J46" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="2:11" ht="66">
@@ -3720,7 +3786,9 @@
       <c r="I47" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="25"/>
+      <c r="J47" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K47" s="25"/>
     </row>
     <row r="48" spans="2:11" ht="66">
@@ -3748,7 +3816,9 @@
       <c r="I48" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="J48" s="25"/>
+      <c r="J48" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K48" s="25" t="s">
         <v>250</v>
       </c>
@@ -3778,7 +3848,9 @@
       <c r="I49" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="25"/>
+      <c r="J49" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="2:11" ht="33">
@@ -3806,7 +3878,9 @@
       <c r="I50" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="25"/>
+      <c r="J50" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="2:11" ht="33">
@@ -3834,7 +3908,9 @@
       <c r="I51" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J51" s="25"/>
+      <c r="J51" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K51" s="25"/>
     </row>
     <row r="52" spans="2:11" ht="33">
@@ -3862,7 +3938,9 @@
       <c r="I52" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J52" s="25"/>
+      <c r="J52" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="2:11" ht="33">
@@ -3890,7 +3968,9 @@
       <c r="I53" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="2:11" ht="33">
@@ -3918,7 +3998,9 @@
       <c r="I54" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="2:11" ht="33">
@@ -3946,7 +4028,9 @@
       <c r="I55" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J55" s="25"/>
+      <c r="J55" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="2:11" ht="33">
@@ -3974,7 +4058,9 @@
       <c r="I56" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J56" s="25"/>
+      <c r="J56" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K56" s="25" t="s">
         <v>281</v>
       </c>
@@ -4004,7 +4090,9 @@
       <c r="I57" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J57" s="25"/>
+      <c r="J57" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K57" s="25" t="s">
         <v>281</v>
       </c>
@@ -4034,7 +4122,9 @@
       <c r="I58" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J58" s="25"/>
+      <c r="J58" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K58" s="25" t="s">
         <v>281</v>
       </c>
@@ -4064,7 +4154,9 @@
       <c r="I59" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J59" s="25"/>
+      <c r="J59" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K59" s="25" t="s">
         <v>281</v>
       </c>
@@ -4094,7 +4186,9 @@
       <c r="I60" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="25"/>
+      <c r="J60" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K60" s="25"/>
     </row>
     <row r="61" spans="2:11" ht="33">
@@ -4122,7 +4216,9 @@
       <c r="I61" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="25"/>
+      <c r="J61" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K61" s="25"/>
     </row>
     <row r="62" spans="2:11" ht="33">
@@ -4150,7 +4246,9 @@
       <c r="I62" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="25"/>
+      <c r="J62" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K62" s="25"/>
     </row>
     <row r="63" spans="2:11" ht="33">
@@ -4178,7 +4276,9 @@
       <c r="I63" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J63" s="25"/>
+      <c r="J63" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K63" s="25"/>
     </row>
     <row r="64" spans="2:11" ht="33">
@@ -4206,7 +4306,9 @@
       <c r="I64" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J64" s="25"/>
+      <c r="J64" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K64" s="25"/>
     </row>
     <row r="65" spans="2:11" ht="49.5">
@@ -4234,7 +4336,9 @@
       <c r="I65" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="J65" s="25"/>
+      <c r="J65" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K65" s="25" t="s">
         <v>359</v>
       </c>
@@ -4264,7 +4368,9 @@
       <c r="I66" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="J66" s="25"/>
+      <c r="J66" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K66" s="25" t="s">
         <v>358</v>
       </c>
@@ -4294,7 +4400,9 @@
       <c r="I67" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="J67" s="25"/>
+      <c r="J67" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K67" s="25" t="s">
         <v>358</v>
       </c>
@@ -4324,7 +4432,9 @@
       <c r="I68" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="J68" s="25"/>
+      <c r="J68" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K68" s="25"/>
     </row>
     <row r="69" spans="2:11" ht="49.5">
@@ -4352,7 +4462,9 @@
       <c r="I69" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="J69" s="25"/>
+      <c r="J69" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K69" s="25"/>
     </row>
     <row r="70" spans="2:11" ht="49.5">
@@ -4380,7 +4492,9 @@
       <c r="I70" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J70" s="25"/>
+      <c r="J70" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K70" s="25"/>
     </row>
     <row r="71" spans="2:11" ht="49.5">
@@ -4408,7 +4522,9 @@
       <c r="I71" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="J71" s="25"/>
+      <c r="J71" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K71" s="25" t="s">
         <v>358</v>
       </c>
@@ -4438,7 +4554,9 @@
       <c r="I72" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="J72" s="25"/>
+      <c r="J72" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K72" s="25" t="s">
         <v>358</v>
       </c>
@@ -4468,7 +4586,9 @@
       <c r="I73" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="J73" s="25"/>
+      <c r="J73" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K73" s="25" t="s">
         <v>358</v>
       </c>
@@ -4498,7 +4618,9 @@
       <c r="I74" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="J74" s="25"/>
+      <c r="J74" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="2:11" ht="49.5">
@@ -4526,7 +4648,9 @@
       <c r="I75" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="J75" s="25"/>
+      <c r="J75" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K75" s="25"/>
     </row>
     <row r="76" spans="2:11" ht="49.5">
@@ -4554,7 +4678,9 @@
       <c r="I76" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="J76" s="25"/>
+      <c r="J76" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K76" s="25"/>
     </row>
     <row r="77" spans="2:11" ht="49.5">
@@ -4582,7 +4708,9 @@
       <c r="I77" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J77" s="25"/>
+      <c r="J77" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K77" s="25"/>
     </row>
     <row r="78" spans="2:11" ht="49.5">
@@ -4610,7 +4738,9 @@
       <c r="I78" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J78" s="25"/>
+      <c r="J78" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K78" s="25"/>
     </row>
     <row r="79" spans="2:11" ht="49.5">
@@ -4638,7 +4768,9 @@
       <c r="I79" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J79" s="25"/>
+      <c r="J79" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K79" s="25"/>
     </row>
     <row r="80" spans="2:11" ht="49.5">
@@ -4666,7 +4798,9 @@
       <c r="I80" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J80" s="25"/>
+      <c r="J80" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K80" s="25"/>
     </row>
     <row r="81" spans="2:11" ht="49.5">
@@ -4694,7 +4828,9 @@
       <c r="I81" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J81" s="25"/>
+      <c r="J81" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K81" s="25"/>
     </row>
     <row r="82" spans="2:11" ht="49.5">
@@ -4722,7 +4858,9 @@
       <c r="I82" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J82" s="25"/>
+      <c r="J82" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K82" s="25"/>
     </row>
     <row r="83" spans="2:11" ht="49.5">
@@ -4750,7 +4888,9 @@
       <c r="I83" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J83" s="25"/>
+      <c r="J83" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K83" s="25"/>
     </row>
     <row r="84" spans="2:11" ht="49.5">
@@ -4778,7 +4918,9 @@
       <c r="I84" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J84" s="25"/>
+      <c r="J84" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K84" s="25"/>
     </row>
     <row r="85" spans="2:11">

--- a/05 테스팅/테스트케이스_2_TwoBe_1.2.xlsx
+++ b/05 테스팅/테스트케이스_2_TwoBe_1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC004, TC005작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.06.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1589,7 +1585,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC006 - TC073작성</t>
+    <t>TC006 - TC073 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC004, TC005 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2368,7 +2368,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>46</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5">
         <v>1.2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2504,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
@@ -2593,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>26</v>
@@ -2605,7 +2605,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>29</v>
@@ -2739,1088 +2739,1088 @@
     </row>
     <row r="13" spans="1:11" ht="66">
       <c r="B13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="66">
       <c r="B14" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="66">
       <c r="B15" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>82</v>
-      </c>
       <c r="G15" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="82.5">
       <c r="B16" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="G16" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="99">
       <c r="B17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="E17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="F17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="66">
       <c r="B18" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>95</v>
-      </c>
       <c r="D18" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="33">
       <c r="B19" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="H19" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:11" ht="33">
       <c r="B20" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:11" ht="33">
       <c r="B21" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11" ht="33">
       <c r="B22" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:11" ht="33">
       <c r="B23" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="H23" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>126</v>
-      </c>
       <c r="I23" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="33">
       <c r="B24" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="H24" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" ht="33">
       <c r="B25" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="G25" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="H25" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>137</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="33">
       <c r="B26" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="2:11" ht="49.5">
       <c r="B27" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>145</v>
-      </c>
       <c r="G27" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:11" ht="33">
       <c r="B28" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G28" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="25" t="s">
-        <v>161</v>
-      </c>
       <c r="J28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="2:11" ht="33">
       <c r="B29" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="H29" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="2:11" ht="33">
       <c r="B30" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:11" ht="49.5">
       <c r="B31" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="2:11" ht="49.5">
       <c r="B32" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="H32" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="33">
       <c r="B33" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>151</v>
-      </c>
       <c r="H33" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="2:11" ht="33">
       <c r="B34" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="G34" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="H34" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:11" ht="33">
       <c r="B35" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="H35" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="2:11" ht="33">
       <c r="B36" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="H36" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36" s="25"/>
     </row>
     <row r="37" spans="2:11" ht="33">
       <c r="B37" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="H37" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="2:11" ht="33">
       <c r="B38" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="25" t="s">
+      <c r="G38" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="H38" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" ht="66">
       <c r="B39" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="E39" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F39" s="25" t="s">
+      <c r="G39" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="H39" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="2:11" ht="33">
       <c r="B40" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="E40" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="2:11" ht="66">
       <c r="B41" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="E41" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="2:11" ht="66">
       <c r="B42" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I42" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="2:11" ht="33">
       <c r="B43" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="G43" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="H43" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>235</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43" s="25"/>
     </row>
     <row r="44" spans="2:11" ht="66">
       <c r="B44" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="2:11" ht="33">
       <c r="B45" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="25"/>
     </row>
     <row r="46" spans="2:11" ht="66">
       <c r="B46" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="I46" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="2:11" ht="66">
       <c r="B47" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47" s="25"/>
     </row>
     <row r="48" spans="2:11" ht="66">
       <c r="B48" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="E48" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="F48" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="G48" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="H48" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>246</v>
-      </c>
       <c r="I48" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="25" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="33">
@@ -3828,28 +3828,28 @@
         <v>47</v>
       </c>
       <c r="C49" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="E49" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>253</v>
-      </c>
       <c r="H49" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K49" s="25"/>
     </row>
@@ -3858,28 +3858,28 @@
         <v>37</v>
       </c>
       <c r="C50" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="25" t="s">
+      <c r="H50" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50" s="25"/>
     </row>
@@ -3888,118 +3888,118 @@
         <v>37</v>
       </c>
       <c r="C51" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="E51" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>260</v>
-      </c>
       <c r="I51" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K51" s="25"/>
     </row>
     <row r="52" spans="2:11" ht="33">
       <c r="B52" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="H52" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="H52" s="25" t="s">
-        <v>265</v>
-      </c>
       <c r="I52" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="2:11" ht="33">
       <c r="B53" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="2:11" ht="33">
       <c r="B54" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K54" s="25"/>
     </row>
@@ -4008,125 +4008,125 @@
         <v>47</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="H55" s="25" t="s">
-        <v>275</v>
-      </c>
       <c r="I55" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="2:11" ht="33">
       <c r="B56" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="E56" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="25" t="s">
+      <c r="G56" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="H56" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>265</v>
-      </c>
       <c r="I56" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K56" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="33">
       <c r="B57" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="E57" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>268</v>
-      </c>
       <c r="H57" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I57" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K57" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="33">
       <c r="B58" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D58" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>272</v>
-      </c>
       <c r="H58" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I58" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="33">
@@ -4134,31 +4134,31 @@
         <v>47</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G59" s="25" t="s">
+      <c r="H59" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>275</v>
-      </c>
       <c r="I59" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K59" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="33">
@@ -4166,28 +4166,28 @@
         <v>37</v>
       </c>
       <c r="C60" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="25" t="s">
+      <c r="G60" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="H60" s="25" t="s">
         <v>285</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>286</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K60" s="25"/>
     </row>
@@ -4196,28 +4196,28 @@
         <v>37</v>
       </c>
       <c r="C61" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G61" s="25" t="s">
+      <c r="H61" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>289</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K61" s="25"/>
     </row>
@@ -4226,28 +4226,28 @@
         <v>37</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="H62" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>295</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K62" s="25"/>
     </row>
@@ -4256,670 +4256,670 @@
         <v>37</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D63" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F63" s="25" t="s">
+      <c r="G63" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="H63" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>299</v>
       </c>
       <c r="I63" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K63" s="25"/>
     </row>
     <row r="64" spans="2:11" ht="33">
       <c r="B64" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="H64" s="25" t="s">
         <v>305</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>306</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K64" s="25"/>
     </row>
     <row r="65" spans="2:11" ht="49.5">
       <c r="B65" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="E65" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="25" t="s">
+      <c r="H65" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="G65" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>311</v>
-      </c>
       <c r="I65" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="49.5">
       <c r="B66" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D66" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="25" t="s">
+      <c r="G66" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="G66" s="25" t="s">
-        <v>318</v>
-      </c>
       <c r="H66" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="49.5">
       <c r="B67" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D67" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="G67" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="25" t="s">
-        <v>321</v>
-      </c>
       <c r="H67" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="49.5">
       <c r="B68" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D68" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="25" t="s">
+      <c r="G68" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="25" t="s">
-        <v>324</v>
-      </c>
       <c r="H68" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K68" s="25"/>
     </row>
     <row r="69" spans="2:11" ht="49.5">
       <c r="B69" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D69" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="E69" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="25" t="s">
+      <c r="G69" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="G69" s="25" t="s">
-        <v>327</v>
-      </c>
       <c r="H69" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K69" s="25"/>
     </row>
     <row r="70" spans="2:11" ht="49.5">
       <c r="B70" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="E70" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>330</v>
-      </c>
       <c r="G70" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K70" s="25"/>
     </row>
     <row r="71" spans="2:11" ht="49.5">
       <c r="B71" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>333</v>
-      </c>
       <c r="D71" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="49.5">
       <c r="B72" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="49.5">
       <c r="B73" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="49.5">
       <c r="B74" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="2:11" ht="49.5">
       <c r="B75" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K75" s="25"/>
     </row>
     <row r="76" spans="2:11" ht="49.5">
       <c r="B76" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G76" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="G76" s="25" t="s">
-        <v>351</v>
-      </c>
       <c r="H76" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K76" s="25"/>
     </row>
     <row r="77" spans="2:11" ht="49.5">
       <c r="B77" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="E77" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F77" s="25" t="s">
+      <c r="G77" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="G77" s="25" t="s">
-        <v>363</v>
-      </c>
       <c r="H77" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I77" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K77" s="25"/>
     </row>
     <row r="78" spans="2:11" ht="49.5">
       <c r="B78" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I78" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K78" s="25"/>
     </row>
     <row r="79" spans="2:11" ht="49.5">
       <c r="B79" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I79" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K79" s="25"/>
     </row>
     <row r="80" spans="2:11" ht="49.5">
       <c r="B80" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I80" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K80" s="25"/>
     </row>
     <row r="81" spans="2:11" ht="49.5">
       <c r="B81" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I81" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K81" s="25"/>
     </row>
     <row r="82" spans="2:11" ht="49.5">
       <c r="B82" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I82" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K82" s="25"/>
     </row>
     <row r="83" spans="2:11" ht="49.5">
       <c r="B83" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I83" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K83" s="25"/>
     </row>
     <row r="84" spans="2:11" ht="49.5">
       <c r="B84" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I84" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K84" s="25"/>
     </row>
